--- a/DokkanKits/22.xlsx
+++ b/DokkanKits/22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06FC1D4-061D-4D04-B294-D7355779277B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613029B-5516-468F-93EF-6734212D6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="2535" windowWidth="15000" windowHeight="14153" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="848" windowWidth="11362" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1307,7 +1307,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -1396,16 +1396,12 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <f>0.59</f>
         <v>0.59</v>
       </c>
-      <c r="D21">
-        <f>0.59</f>
-        <v>0.59</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
@@ -1419,8 +1415,7 @@
         <v>0.37</v>
       </c>
       <c r="D22">
-        <f>0.59</f>
-        <v>0.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
